--- a/Redlocon/Redlocon/Documentation/Supported.xlsx
+++ b/Redlocon/Redlocon/Documentation/Supported.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peuckar.7LRATDE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C5C07E7E-66CC-4FA2-BA63-825021E090E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BAD6D-E564-4612-BCE2-35392D3122C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supported" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supported!$A$1:$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supported!$A$1:$D$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="66">
   <si>
     <t>Test Case</t>
   </si>
@@ -200,12 +200,33 @@
   </si>
   <si>
     <t>14.18.4</t>
+  </si>
+  <si>
+    <t>14.18.5</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>14.5.1</t>
+  </si>
+  <si>
+    <t>13.17.4</t>
+  </si>
+  <si>
+    <t>13.17.2</t>
+  </si>
+  <si>
+    <t>13.16.3</t>
+  </si>
+  <si>
+    <t>13.16.2.4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1056,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1941,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -1933,14 +1954,14 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
+      <c r="A63" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D63" t="s">
         <v>51</v>
@@ -1948,7 +1969,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1962,7 +1983,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -1976,7 +1997,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1990,13 +2011,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>5</v>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D67" t="s">
         <v>51</v>
@@ -2004,7 +2025,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -2018,7 +2039,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -2030,8 +2051,120 @@
         <v>51</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D69"/>
+  <autoFilter ref="A1:D76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>